--- a/biology/Médecine/Bruno_Bucheli/Bruno_Bucheli.xlsx
+++ b/biology/Médecine/Bruno_Bucheli/Bruno_Bucheli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bruno Bucheli, né en 1959 à Kriens et décédé accidentellement le 1er janvier 2003 au Costa Rica, est un médecin suisse (Docteur en médecine MDPH), responsable et coordinateur des actions de prévention relatives aux épidémies et à la vaccination pour le canton de Bâle-Ville. En outre il était expert "Biomed" et a publié différentes recherches médicales avancées.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né près de Lucerne à Kriens en 1959, il étudia tout d'abord la médecine (chirurgie et médecine interne) à la faculté de Bâle, puis à Genève en Suisse jusqu'en 1986 avant de poursuivre ses études à la Harvard School of Public Health in Boston (USA) par un Master en Santé Publique (Master of Public Health). De 1990 à 1999 il assura les fonctions d'assistant et de chef de clinique (Oberarzt) à l'hôpital cantonal de Bâle (Kantonsspital) en intervenant ponctuellement sur un projet concernant la détention préventive de certains patients hospitalisés et sur les patients touchés par le VIH. Il travailla pendant un an pour l'ONU en Namibie où il dirigea un hôpital. 
 En 2000 il succéda au Docteur Hanspeter Rohr (2000) au poste de médecin cantonal pour Bâle. Expert et chercheur "Biomed" (Biomedexpert), il assura les fonctions de responsable et coordinateur des actions de prévention relatives aux épidémies et à la vaccination pour le canton de Bâle et responsable du Département de la Santé Publique du canton de Bâle (Department of Public Health des Kanton Basel-Stadt), tout en publiant différentes recherches médicales avancées. 
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>"First Clinical Judgment by Primary Care Physicians Distinguishes Well Between Nonorganic and Organic Causes of Abdominal or Chest Pain" (1997) * (Benedict Martina, MD; Bruno Bucheli, MD; Martin Stotz, MD; Edouard Battegay, MD; Niklaus Gyr, MD) - by the Society of General Internal Medicine
 cité dans "Zürcher Beiträge zur Sicherheitspolitik und Konfliktforschung" (le terrorisme biologique) - No 74 - ISN (1996-2004)
@@ -581,7 +597,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">http://www.sncweb.ch/newsbox/januar-2003/2003-januar-07_kantone.htm
 http://www.biomedexperts.com/Profile.bme/167657/Bruno_Bucheli
